--- a/datasets/final/ATP W124 Codebook.xlsx
+++ b/datasets/final/ATP W124 Codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11b2a9a23286e0ef/Documents/MS Data Analysis and Visualization/DATA 70500 Working with data-fundamentals/Final project/Potential datasets/W124_Mar23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclai\Documents\Github\DATA-70500-working-with-data\datasets\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E88293383C29E06FE8B2C00F400E80C335A519E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06255458-CF60-4D44-83E9-0FD548B1C8D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E5D7466-5A8D-465A-BDB4-3BC6884713DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -946,9 +946,6 @@
     <t>NATIONALITY_BORN_W124</t>
   </si>
   <si>
-    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Being born in</t>
-  </si>
-  <si>
     <t>Very important</t>
   </si>
   <si>
@@ -964,21 +961,12 @@
     <t>NATIONALITY_LANG_W124</t>
   </si>
   <si>
-    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Being able to</t>
-  </si>
-  <si>
     <t>NATIONALITY_RELIG_W124</t>
   </si>
   <si>
-    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Being a Chris</t>
-  </si>
-  <si>
     <t>NATIONALITY_CUSTOM_W124</t>
   </si>
   <si>
-    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Sharing Amer</t>
-  </si>
-  <si>
     <t>CHINA_TRADE_W124</t>
   </si>
   <si>
@@ -1715,6 +1703,18 @@
   </si>
   <si>
     <t>3.827953</t>
+  </si>
+  <si>
+    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Being born in the US</t>
+  </si>
+  <si>
+    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Being able to speak English</t>
+  </si>
+  <si>
+    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Being a Christian</t>
+  </si>
+  <si>
+    <t>Some people say that the following things are important for being truly American. Others say they are not important for being truly American. How important do you think each of the following is to be truly American?    Sharing American customs and traditions</t>
   </si>
 </sst>
 </file>
@@ -1812,6 +1812,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2096,8 +2100,8 @@
   <dimension ref="A1:D785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B765" sqref="B765:B770"/>
+      <pane ySplit="1" topLeftCell="A531" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B551" sqref="B551:B556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8685,13 +8689,13 @@
         <v>307</v>
       </c>
       <c r="B531" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C531" s="3">
+        <v>1</v>
+      </c>
+      <c r="D531" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C531" s="3">
-        <v>1</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -8703,7 +8707,7 @@
         <v>2</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -8715,7 +8719,7 @@
         <v>3</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -8727,7 +8731,7 @@
         <v>4</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -8744,57 +8748,57 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>314</v>
+        <v>562</v>
       </c>
       <c r="C536" s="3">
         <v>1</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B537" s="6"/>
       <c r="C537" s="2">
         <v>2</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B538" s="6"/>
       <c r="C538" s="2">
         <v>3</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B539" s="6"/>
       <c r="C539" s="2">
         <v>4</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B540" s="6"/>
       <c r="C540" s="2">
@@ -8806,57 +8810,57 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>316</v>
+        <v>563</v>
       </c>
       <c r="C541" s="3">
         <v>1</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B542" s="6"/>
       <c r="C542" s="2">
         <v>2</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B543" s="6"/>
       <c r="C543" s="2">
         <v>3</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B544" s="6"/>
       <c r="C544" s="2">
         <v>4</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B545" s="6"/>
       <c r="C545" s="2">
@@ -8868,57 +8872,57 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>318</v>
+        <v>564</v>
       </c>
       <c r="C546" s="3">
         <v>1</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B547" s="6"/>
       <c r="C547" s="2">
         <v>2</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B548" s="6"/>
       <c r="C548" s="2">
         <v>3</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B549" s="6"/>
       <c r="C549" s="2">
         <v>4</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B550" s="6"/>
       <c r="C550" s="2">
@@ -8930,57 +8934,57 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C551" s="3">
         <v>1</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B552" s="6"/>
       <c r="C552" s="2">
         <v>2</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B553" s="6"/>
       <c r="C553" s="2">
         <v>3</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B554" s="6"/>
       <c r="C554" s="2">
         <v>4</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B555" s="6"/>
       <c r="C555" s="2">
@@ -8992,7 +8996,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B556" s="6"/>
       <c r="C556" s="2">
@@ -9004,57 +9008,57 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C557" s="3">
         <v>1</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B558" s="6"/>
       <c r="C558" s="2">
         <v>2</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B559" s="6"/>
       <c r="C559" s="2">
         <v>3</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B560" s="6"/>
       <c r="C560" s="2">
         <v>4</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B561" s="6"/>
       <c r="C561" s="2">
@@ -9066,7 +9070,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B562" s="6"/>
       <c r="C562" s="2">
@@ -9078,57 +9082,57 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C563" s="3">
         <v>1</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B564" s="6"/>
       <c r="C564" s="2">
         <v>2</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B565" s="6"/>
       <c r="C565" s="2">
         <v>3</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B566" s="6"/>
       <c r="C566" s="2">
         <v>4</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B567" s="6"/>
       <c r="C567" s="2">
@@ -9140,45 +9144,45 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C568" s="3">
         <v>1</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B569" s="6"/>
       <c r="C569" s="2">
         <v>2</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B570" s="6"/>
       <c r="C570" s="2">
         <v>3</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B571" s="6"/>
       <c r="C571" s="2">
@@ -9190,45 +9194,45 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C572" s="3">
         <v>1</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B573" s="6"/>
       <c r="C573" s="2">
         <v>2</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B574" s="6"/>
       <c r="C574" s="2">
         <v>3</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B575" s="6"/>
       <c r="C575" s="2">
@@ -9240,81 +9244,81 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C576" s="3">
         <v>1</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B577" s="6"/>
       <c r="C577" s="2">
         <v>2</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B578" s="6"/>
       <c r="C578" s="2">
         <v>3</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B579" s="6"/>
       <c r="C579" s="2">
         <v>4</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B580" s="6"/>
       <c r="C580" s="2">
         <v>5</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B581" s="6"/>
       <c r="C581" s="2">
         <v>6</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B582" s="6"/>
       <c r="C582" s="2">
@@ -9326,10 +9330,10 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C583" s="3">
         <v>1</v>
@@ -9340,7 +9344,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B584" s="6"/>
       <c r="C584" s="2">
@@ -9352,7 +9356,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B585" s="6"/>
       <c r="C585" s="2">
@@ -9364,69 +9368,69 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C586" s="3">
         <v>1</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B587" s="6"/>
       <c r="C587" s="2">
         <v>2</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B588" s="6"/>
       <c r="C588" s="2">
         <v>3</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B589" s="6"/>
       <c r="C589" s="2">
         <v>4</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B590" s="6"/>
       <c r="C590" s="2">
         <v>5</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B591" s="6"/>
       <c r="C591" s="2">
@@ -9438,57 +9442,57 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C592" s="3">
         <v>1</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B593" s="6"/>
       <c r="C593" s="2">
         <v>2</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B594" s="6"/>
       <c r="C594" s="2">
         <v>3</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B595" s="6"/>
       <c r="C595" s="2">
         <v>4</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B596" s="6"/>
       <c r="C596" s="2">
@@ -9500,57 +9504,57 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C597" s="3">
         <v>1</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B598" s="6"/>
       <c r="C598" s="2">
         <v>2</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B599" s="6"/>
       <c r="C599" s="2">
         <v>3</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B600" s="6"/>
       <c r="C600" s="2">
         <v>4</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B601" s="6"/>
       <c r="C601" s="2">
@@ -9562,57 +9566,57 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C602" s="3">
         <v>1</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B603" s="6"/>
       <c r="C603" s="2">
         <v>2</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B604" s="6"/>
       <c r="C604" s="2">
         <v>3</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B605" s="6"/>
       <c r="C605" s="2">
         <v>4</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B606" s="6"/>
       <c r="C606" s="2">
@@ -9624,57 +9628,57 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C607" s="3">
         <v>1</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B608" s="6"/>
       <c r="C608" s="2">
         <v>2</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B609" s="6"/>
       <c r="C609" s="2">
         <v>3</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B610" s="6"/>
       <c r="C610" s="2">
         <v>4</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B611" s="6"/>
       <c r="C611" s="2">
@@ -9686,57 +9690,57 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C612" s="3">
         <v>1</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B613" s="6"/>
       <c r="C613" s="2">
         <v>2</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B614" s="6"/>
       <c r="C614" s="2">
         <v>3</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B615" s="6"/>
       <c r="C615" s="2">
         <v>4</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B616" s="6"/>
       <c r="C616" s="2">
@@ -9748,69 +9752,69 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C617" s="3">
         <v>1</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B618" s="6"/>
       <c r="C618" s="2">
         <v>2</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B619" s="6"/>
       <c r="C619" s="2">
         <v>3</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B620" s="6"/>
       <c r="C620" s="2">
         <v>4</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B621" s="6"/>
       <c r="C621" s="2">
         <v>5</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B622" s="6"/>
       <c r="C622" s="2">
@@ -9822,231 +9826,231 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C623" s="3">
         <v>1</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B624" s="6"/>
       <c r="C624" s="2">
         <v>2</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C625" s="3">
         <v>1</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B626" s="6"/>
       <c r="C626" s="2">
         <v>2</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B627" s="6"/>
       <c r="C627" s="2">
         <v>3</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B628" s="6"/>
       <c r="C628" s="2">
         <v>4</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C629" s="3">
         <v>1</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B630" s="6"/>
       <c r="C630" s="2">
         <v>2</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B631" s="6"/>
       <c r="C631" s="2">
         <v>3</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B632" s="6"/>
       <c r="C632" s="2">
         <v>4</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B633" s="6"/>
       <c r="C633" s="2">
         <v>5</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B634" s="6"/>
       <c r="C634" s="2">
         <v>6</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B635" s="6"/>
       <c r="C635" s="2">
         <v>7</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B636" s="6"/>
       <c r="C636" s="2">
         <v>8</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B637" s="6"/>
       <c r="C637" s="2">
         <v>9</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C638" s="3">
         <v>1</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B639" s="6"/>
       <c r="C639" s="2">
         <v>2</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B640" s="6"/>
       <c r="C640" s="2">
         <v>3</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B641" s="6"/>
       <c r="C641" s="2">
@@ -10058,57 +10062,57 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B642" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C642" s="3">
         <v>1</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B643" s="6"/>
       <c r="C643" s="2">
         <v>2</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B644" s="6"/>
       <c r="C644" s="2">
         <v>3</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B645" s="6"/>
       <c r="C645" s="2">
         <v>4</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B646" s="6"/>
       <c r="C646" s="2">
@@ -10120,45 +10124,45 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B647" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C647" s="3">
         <v>1</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B648" s="6"/>
       <c r="C648" s="2">
         <v>2</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B649" s="6"/>
       <c r="C649" s="2">
         <v>3</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B650" s="6"/>
       <c r="C650" s="2">
@@ -10170,45 +10174,45 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C651" s="3">
         <v>1</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B652" s="6"/>
       <c r="C652" s="2">
         <v>2</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B653" s="6"/>
       <c r="C653" s="2">
         <v>3</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B654" s="6"/>
       <c r="C654" s="2">
@@ -10220,81 +10224,81 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B655" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C655" s="3">
         <v>1</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B656" s="6"/>
       <c r="C656" s="2">
         <v>2</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B657" s="6"/>
       <c r="C657" s="2">
         <v>3</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B658" s="6"/>
       <c r="C658" s="2">
         <v>4</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B659" s="6"/>
       <c r="C659" s="2">
         <v>5</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B660" s="6"/>
       <c r="C660" s="2">
         <v>6</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B661" s="6"/>
       <c r="C661" s="2">
@@ -10306,10 +10310,10 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B662" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C662" s="3">
         <v>1</v>
@@ -10320,7 +10324,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B663" s="6"/>
       <c r="C663" s="2">
@@ -10332,7 +10336,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B664" s="6"/>
       <c r="C664" s="2">
@@ -10344,69 +10348,69 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B665" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C665" s="3">
         <v>1</v>
       </c>
       <c r="D665" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B666" s="6"/>
       <c r="C666" s="2">
         <v>2</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B667" s="6"/>
       <c r="C667" s="2">
         <v>3</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B668" s="6"/>
       <c r="C668" s="2">
         <v>4</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B669" s="6"/>
       <c r="C669" s="2">
         <v>5</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B670" s="6"/>
       <c r="C670" s="2">
@@ -10418,43 +10422,43 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B671" s="6"/>
       <c r="C671" s="2">
         <v>7</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B672" s="6"/>
       <c r="C672" s="2">
         <v>8</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B673" s="6"/>
       <c r="C673" s="2">
         <v>97</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B674" s="6"/>
       <c r="C674" s="2">
@@ -10466,131 +10470,131 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B675" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C675" s="3">
         <v>1</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B676" s="6"/>
       <c r="C676" s="2">
         <v>2</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B677" s="6"/>
       <c r="C677" s="2">
         <v>3</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B678" s="6"/>
       <c r="C678" s="2">
         <v>4</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B679" s="6"/>
       <c r="C679" s="2">
         <v>99</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B680" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C680" s="3">
         <v>1</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B681" s="6"/>
       <c r="C681" s="2">
         <v>2</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B682" s="6"/>
       <c r="C682" s="2">
         <v>3</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B683" s="6"/>
       <c r="C683" s="2">
         <v>4</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B684" s="6"/>
       <c r="C684" s="2">
         <v>5</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B685" s="6"/>
       <c r="C685" s="2">
@@ -10602,69 +10606,69 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B686" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C686" s="3">
         <v>1</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B687" s="6"/>
       <c r="C687" s="2">
         <v>2</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B688" s="6"/>
       <c r="C688" s="2">
         <v>3</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B689" s="6"/>
       <c r="C689" s="2">
         <v>4</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B690" s="6"/>
       <c r="C690" s="2">
         <v>5</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B691" s="6"/>
       <c r="C691" s="2">
@@ -10676,10 +10680,10 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B692" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C692" s="3">
         <v>1</v>
@@ -10690,7 +10694,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B693" s="6"/>
       <c r="C693" s="2">
@@ -10702,7 +10706,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B694" s="6"/>
       <c r="C694" s="2">
@@ -10714,57 +10718,57 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C695" s="3">
         <v>1</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B696" s="6"/>
       <c r="C696" s="2">
         <v>2</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B697" s="6"/>
       <c r="C697" s="2">
         <v>3</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B698" s="6"/>
       <c r="C698" s="2">
         <v>4</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A699" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B699" s="6"/>
       <c r="C699" s="2">
@@ -10776,81 +10780,81 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A700" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C700" s="3">
         <v>1</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A701" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B701" s="6"/>
       <c r="C701" s="2">
         <v>2</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A702" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B702" s="6"/>
       <c r="C702" s="2">
         <v>3</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A703" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B703" s="6"/>
       <c r="C703" s="2">
         <v>4</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A704" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B704" s="6"/>
       <c r="C704" s="2">
         <v>5</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A705" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B705" s="6"/>
       <c r="C705" s="2">
         <v>6</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A706" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B706" s="6"/>
       <c r="C706" s="2">
@@ -10862,153 +10866,153 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A707" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C707" s="3">
         <v>1</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A708" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B708" s="6"/>
       <c r="C708" s="2">
         <v>2</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A709" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B709" s="6"/>
       <c r="C709" s="2">
         <v>3</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A710" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B710" s="6"/>
       <c r="C710" s="2">
         <v>4</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A711" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B711" s="6"/>
       <c r="C711" s="2">
         <v>5</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A712" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B712" s="6"/>
       <c r="C712" s="2">
         <v>6</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A713" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B713" s="6"/>
       <c r="C713" s="2">
         <v>7</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A714" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B714" s="6"/>
       <c r="C714" s="2">
         <v>8</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A715" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B715" s="6"/>
       <c r="C715" s="2">
         <v>9</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A716" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B716" s="6"/>
       <c r="C716" s="2">
         <v>10</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A717" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B717" s="6"/>
       <c r="C717" s="2">
         <v>11</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A718" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B718" s="6"/>
       <c r="C718" s="2">
         <v>12</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A719" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B719" s="6"/>
       <c r="C719" s="2">
@@ -11020,33 +11024,33 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A720" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B720" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C720" s="3">
         <v>1</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A721" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B721" s="6"/>
       <c r="C721" s="2">
         <v>2</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A722" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B722" s="6"/>
       <c r="C722" s="2">
@@ -11058,57 +11062,57 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A723" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B723" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C723" s="3">
         <v>1</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A724" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B724" s="6"/>
       <c r="C724" s="2">
         <v>2</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A725" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B725" s="6"/>
       <c r="C725" s="2">
         <v>3</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A726" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B726" s="6"/>
       <c r="C726" s="2">
         <v>4</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A727" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B727" s="6"/>
       <c r="C727" s="2">
@@ -11120,81 +11124,81 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A728" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B728" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C728" s="3">
         <v>1</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A729" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B729" s="6"/>
       <c r="C729" s="2">
         <v>2</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A730" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B730" s="6"/>
       <c r="C730" s="2">
         <v>3</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A731" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B731" s="6"/>
       <c r="C731" s="2">
         <v>4</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A732" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B732" s="6"/>
       <c r="C732" s="2">
         <v>5</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A733" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B733" s="6"/>
       <c r="C733" s="2">
         <v>6</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A734" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B734" s="6"/>
       <c r="C734" s="2">
@@ -11206,57 +11210,57 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A735" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B735" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C735" s="3">
         <v>1</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A736" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B736" s="6"/>
       <c r="C736" s="2">
         <v>2</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A737" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B737" s="6"/>
       <c r="C737" s="2">
         <v>3</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A738" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B738" s="6"/>
       <c r="C738" s="2">
         <v>4</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A739" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B739" s="6"/>
       <c r="C739" s="2">
@@ -11268,33 +11272,33 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A740" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B740" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C740" s="3">
         <v>1</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A741" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B741" s="6"/>
       <c r="C741" s="2">
         <v>2</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A742" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B742" s="6"/>
       <c r="C742" s="2">
@@ -11306,145 +11310,145 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A743" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B743" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C743" s="3">
         <v>1</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A744" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B744" s="6"/>
       <c r="C744" s="2">
         <v>2</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A745" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B745" s="6"/>
       <c r="C745" s="2">
         <v>9</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A746" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B746" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C746" s="3">
         <v>1</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A747" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B747" s="6"/>
       <c r="C747" s="2">
         <v>2</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A748" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B748" s="6"/>
       <c r="C748" s="2">
         <v>3</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A749" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B749" s="6"/>
       <c r="C749" s="2">
         <v>4</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A750" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B750" s="6"/>
       <c r="C750" s="2">
         <v>9</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A751" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B751" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C751" s="3">
         <v>1</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A752" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B752" s="6"/>
       <c r="C752" s="2">
         <v>2</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A753" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B753" s="6"/>
       <c r="C753" s="2">
         <v>3</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A754" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B754" s="6"/>
       <c r="C754" s="2">
@@ -11456,117 +11460,117 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A755" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B755" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C755" s="3">
         <v>1</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A756" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B756" s="6"/>
       <c r="C756" s="2">
         <v>2</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A757" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B757" s="6"/>
       <c r="C757" s="2">
         <v>3</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A758" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B758" s="6"/>
       <c r="C758" s="2">
         <v>4</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A759" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B759" s="6"/>
       <c r="C759" s="2">
         <v>5</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A760" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B760" s="6"/>
       <c r="C760" s="2">
         <v>6</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A761" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B761" s="6"/>
       <c r="C761" s="2">
         <v>7</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A762" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B762" s="6"/>
       <c r="C762" s="2">
         <v>8</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A763" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B763" s="6"/>
       <c r="C763" s="2">
         <v>9</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A764" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B764" s="6"/>
       <c r="C764" s="2">
@@ -11578,69 +11582,69 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A765" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B765" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C765" s="3">
         <v>1</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A766" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B766" s="6"/>
       <c r="C766" s="2">
         <v>2</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A767" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B767" s="6"/>
       <c r="C767" s="2">
         <v>3</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A768" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B768" s="6"/>
       <c r="C768" s="2">
         <v>4</v>
       </c>
       <c r="D768" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A769" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B769" s="6"/>
       <c r="C769" s="2">
         <v>5</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A770" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B770" s="6"/>
       <c r="C770" s="2">
@@ -11652,69 +11656,69 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A771" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B771" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C771" s="3">
         <v>1</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A772" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B772" s="6"/>
       <c r="C772" s="2">
         <v>2</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A773" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B773" s="6"/>
       <c r="C773" s="2">
         <v>3</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A774" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B774" s="6"/>
       <c r="C774" s="2">
         <v>4</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A775" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B775" s="6"/>
       <c r="C775" s="2">
         <v>5</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A776" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B776" s="6"/>
       <c r="C776" s="2">
@@ -11726,10 +11730,10 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A777" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B777" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C777" s="3">
         <v>1</v>
@@ -11740,7 +11744,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A778" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B778" s="6"/>
       <c r="C778" s="2">
@@ -11752,7 +11756,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A779" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B779" s="6"/>
       <c r="C779" s="2">
@@ -11764,45 +11768,45 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A780" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B780" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C780" s="3">
         <v>1</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A781" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B781" s="6"/>
       <c r="C781" s="2">
         <v>2</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A782" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B782" s="6"/>
       <c r="C782" s="2">
         <v>3</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A783" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B783" s="6"/>
       <c r="C783" s="2">
@@ -11814,13 +11818,13 @@
     </row>
     <row r="784" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A784" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B784" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D784" s="3" t="s">
         <v>7</v>
@@ -11828,11 +11832,11 @@
     </row>
     <row r="785" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A785" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B785" s="6"/>
       <c r="C785" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D785" s="2" t="s">
         <v>9</v>
@@ -11840,6 +11844,150 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="B154:B159"/>
+    <mergeCell ref="B160:B165"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="B219:B224"/>
+    <mergeCell ref="B225:B230"/>
+    <mergeCell ref="B231:B236"/>
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="B249:B255"/>
+    <mergeCell ref="B256:B262"/>
+    <mergeCell ref="B263:B269"/>
+    <mergeCell ref="B270:B276"/>
+    <mergeCell ref="B277:B283"/>
+    <mergeCell ref="B284:B288"/>
+    <mergeCell ref="B289:B293"/>
+    <mergeCell ref="B294:B298"/>
+    <mergeCell ref="B299:B304"/>
+    <mergeCell ref="B305:B310"/>
+    <mergeCell ref="B311:B314"/>
+    <mergeCell ref="B315:B318"/>
+    <mergeCell ref="B319:B323"/>
+    <mergeCell ref="B324:B328"/>
+    <mergeCell ref="B329:B333"/>
+    <mergeCell ref="B334:B338"/>
+    <mergeCell ref="B339:B343"/>
+    <mergeCell ref="B344:B348"/>
+    <mergeCell ref="B349:B353"/>
+    <mergeCell ref="B354:B360"/>
+    <mergeCell ref="B361:B367"/>
+    <mergeCell ref="B368:B374"/>
+    <mergeCell ref="B375:B381"/>
+    <mergeCell ref="B382:B388"/>
+    <mergeCell ref="B389:B394"/>
+    <mergeCell ref="B395:B400"/>
+    <mergeCell ref="B401:B406"/>
+    <mergeCell ref="B407:B412"/>
+    <mergeCell ref="B413:B418"/>
+    <mergeCell ref="B419:B424"/>
+    <mergeCell ref="B425:B430"/>
+    <mergeCell ref="B431:B435"/>
+    <mergeCell ref="B436:B440"/>
+    <mergeCell ref="B441:B445"/>
+    <mergeCell ref="B446:B450"/>
+    <mergeCell ref="B451:B455"/>
+    <mergeCell ref="B456:B460"/>
+    <mergeCell ref="B461:B463"/>
+    <mergeCell ref="B464:B466"/>
+    <mergeCell ref="B467:B470"/>
+    <mergeCell ref="B471:B474"/>
+    <mergeCell ref="B475:B478"/>
+    <mergeCell ref="B479:B482"/>
+    <mergeCell ref="B483:B486"/>
+    <mergeCell ref="B487:B490"/>
+    <mergeCell ref="B491:B495"/>
+    <mergeCell ref="B496:B500"/>
+    <mergeCell ref="B501:B505"/>
+    <mergeCell ref="B506:B510"/>
+    <mergeCell ref="B511:B515"/>
+    <mergeCell ref="B516:B520"/>
+    <mergeCell ref="B521:B525"/>
+    <mergeCell ref="B526:B530"/>
+    <mergeCell ref="B531:B535"/>
+    <mergeCell ref="B536:B540"/>
+    <mergeCell ref="B541:B545"/>
+    <mergeCell ref="B546:B550"/>
+    <mergeCell ref="B551:B556"/>
+    <mergeCell ref="B557:B562"/>
+    <mergeCell ref="B563:B567"/>
+    <mergeCell ref="B568:B571"/>
+    <mergeCell ref="B572:B575"/>
+    <mergeCell ref="B576:B582"/>
+    <mergeCell ref="B583:B585"/>
+    <mergeCell ref="B586:B591"/>
+    <mergeCell ref="B592:B596"/>
+    <mergeCell ref="B597:B601"/>
+    <mergeCell ref="B602:B606"/>
+    <mergeCell ref="B607:B611"/>
+    <mergeCell ref="B612:B616"/>
+    <mergeCell ref="B617:B622"/>
+    <mergeCell ref="B623:B624"/>
+    <mergeCell ref="B625:B628"/>
+    <mergeCell ref="B629:B637"/>
+    <mergeCell ref="B638:B641"/>
+    <mergeCell ref="B642:B646"/>
+    <mergeCell ref="B647:B650"/>
+    <mergeCell ref="B651:B654"/>
+    <mergeCell ref="B655:B661"/>
+    <mergeCell ref="B662:B664"/>
+    <mergeCell ref="B665:B674"/>
+    <mergeCell ref="B675:B679"/>
+    <mergeCell ref="B680:B685"/>
+    <mergeCell ref="B686:B691"/>
+    <mergeCell ref="B692:B694"/>
+    <mergeCell ref="B695:B699"/>
+    <mergeCell ref="B700:B706"/>
+    <mergeCell ref="B707:B719"/>
+    <mergeCell ref="B720:B722"/>
+    <mergeCell ref="B723:B727"/>
+    <mergeCell ref="B728:B734"/>
+    <mergeCell ref="B735:B739"/>
     <mergeCell ref="B784:B785"/>
     <mergeCell ref="B740:B742"/>
     <mergeCell ref="B743:B745"/>
@@ -11850,150 +11998,6 @@
     <mergeCell ref="B771:B776"/>
     <mergeCell ref="B777:B779"/>
     <mergeCell ref="B780:B783"/>
-    <mergeCell ref="B686:B691"/>
-    <mergeCell ref="B692:B694"/>
-    <mergeCell ref="B695:B699"/>
-    <mergeCell ref="B700:B706"/>
-    <mergeCell ref="B707:B719"/>
-    <mergeCell ref="B720:B722"/>
-    <mergeCell ref="B723:B727"/>
-    <mergeCell ref="B728:B734"/>
-    <mergeCell ref="B735:B739"/>
-    <mergeCell ref="B638:B641"/>
-    <mergeCell ref="B642:B646"/>
-    <mergeCell ref="B647:B650"/>
-    <mergeCell ref="B651:B654"/>
-    <mergeCell ref="B655:B661"/>
-    <mergeCell ref="B662:B664"/>
-    <mergeCell ref="B665:B674"/>
-    <mergeCell ref="B675:B679"/>
-    <mergeCell ref="B680:B685"/>
-    <mergeCell ref="B592:B596"/>
-    <mergeCell ref="B597:B601"/>
-    <mergeCell ref="B602:B606"/>
-    <mergeCell ref="B607:B611"/>
-    <mergeCell ref="B612:B616"/>
-    <mergeCell ref="B617:B622"/>
-    <mergeCell ref="B623:B624"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="B629:B637"/>
-    <mergeCell ref="B546:B550"/>
-    <mergeCell ref="B551:B556"/>
-    <mergeCell ref="B557:B562"/>
-    <mergeCell ref="B563:B567"/>
-    <mergeCell ref="B568:B571"/>
-    <mergeCell ref="B572:B575"/>
-    <mergeCell ref="B576:B582"/>
-    <mergeCell ref="B583:B585"/>
-    <mergeCell ref="B586:B591"/>
-    <mergeCell ref="B501:B505"/>
-    <mergeCell ref="B506:B510"/>
-    <mergeCell ref="B511:B515"/>
-    <mergeCell ref="B516:B520"/>
-    <mergeCell ref="B521:B525"/>
-    <mergeCell ref="B526:B530"/>
-    <mergeCell ref="B531:B535"/>
-    <mergeCell ref="B536:B540"/>
-    <mergeCell ref="B541:B545"/>
-    <mergeCell ref="B464:B466"/>
-    <mergeCell ref="B467:B470"/>
-    <mergeCell ref="B471:B474"/>
-    <mergeCell ref="B475:B478"/>
-    <mergeCell ref="B479:B482"/>
-    <mergeCell ref="B483:B486"/>
-    <mergeCell ref="B487:B490"/>
-    <mergeCell ref="B491:B495"/>
-    <mergeCell ref="B496:B500"/>
-    <mergeCell ref="B419:B424"/>
-    <mergeCell ref="B425:B430"/>
-    <mergeCell ref="B431:B435"/>
-    <mergeCell ref="B436:B440"/>
-    <mergeCell ref="B441:B445"/>
-    <mergeCell ref="B446:B450"/>
-    <mergeCell ref="B451:B455"/>
-    <mergeCell ref="B456:B460"/>
-    <mergeCell ref="B461:B463"/>
-    <mergeCell ref="B361:B367"/>
-    <mergeCell ref="B368:B374"/>
-    <mergeCell ref="B375:B381"/>
-    <mergeCell ref="B382:B388"/>
-    <mergeCell ref="B389:B394"/>
-    <mergeCell ref="B395:B400"/>
-    <mergeCell ref="B401:B406"/>
-    <mergeCell ref="B407:B412"/>
-    <mergeCell ref="B413:B418"/>
-    <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B319:B323"/>
-    <mergeCell ref="B324:B328"/>
-    <mergeCell ref="B329:B333"/>
-    <mergeCell ref="B334:B338"/>
-    <mergeCell ref="B339:B343"/>
-    <mergeCell ref="B344:B348"/>
-    <mergeCell ref="B349:B353"/>
-    <mergeCell ref="B354:B360"/>
-    <mergeCell ref="B263:B269"/>
-    <mergeCell ref="B270:B276"/>
-    <mergeCell ref="B277:B283"/>
-    <mergeCell ref="B284:B288"/>
-    <mergeCell ref="B289:B293"/>
-    <mergeCell ref="B294:B298"/>
-    <mergeCell ref="B299:B304"/>
-    <mergeCell ref="B305:B310"/>
-    <mergeCell ref="B311:B314"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="B219:B224"/>
-    <mergeCell ref="B225:B230"/>
-    <mergeCell ref="B231:B236"/>
-    <mergeCell ref="B237:B242"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="B249:B255"/>
-    <mergeCell ref="B256:B262"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B160:B165"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
